--- a/biology/Origine et évolution du vivant/Guide_phylogénétique_illustré_du_monde_unicellulaire/Guide_phylogénétique_illustré_du_monde_unicellulaire.xlsx
+++ b/biology/Origine et évolution du vivant/Guide_phylogénétique_illustré_du_monde_unicellulaire/Guide_phylogénétique_illustré_du_monde_unicellulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Guide_phylog%C3%A9n%C3%A9tique_illustr%C3%A9_du_monde_unicellulaire</t>
+          <t>Guide_phylogénétique_illustré_du_monde_unicellulaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce guide phylogénétique illustré du monde unicellulaire permet, pour l'ensemble des groupes d'organismes unicellulaires, d'accéder directement aux images entreposées sur le site de Wikimedia Commons (base de données photographique et, comme Wikipédia, coprojet de Wikimedia). L'accès peut se faire soit de manière simplifiée vers les principaux grands groupes, soit de façon plus ciblée via un arbre phylogénétique. Cet arbre est tiré de l'ouvrage de Lecointre : Classification phylogénétique du vivant. Pour un arbre phylogénétique plus détaillé, voir l'arbre phylogénétique de wikipédia.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Guide_phylog%C3%A9n%C3%A9tique_illustr%C3%A9_du_monde_unicellulaire</t>
+          <t>Guide_phylogénétique_illustré_du_monde_unicellulaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Accès simplifié et direct aux grands groupes
+          <t>Accès simplifié et direct aux grands groupes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Bactéries
 			Archées
 			Ciliés
@@ -525,8 +543,43 @@
 			Zygomycètes
 			Ascomycètes
 			Amibes
-Accès par l'arbre phylogénétique détaillé
-Les liens de l'arbre phylogénétique (colonne de gauche) mènent aux articles correspondant de wikipédia. Ceux de la colonne de droite mènent aux pages Wikimedia Commons. Dans l'arbre phylogénétique, les groupes éteints n'ont pas été représentés. La classification phylogénétique étant en perpétuelle évolution, certains termes peuvent varier entre wikimedia commons et wikipédia. Une mise à jour permanente est nécessaire...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Guide_phylogénétique_illustré_du_monde_unicellulaire</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guide_phylog%C3%A9n%C3%A9tique_illustr%C3%A9_du_monde_unicellulaire</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Guides phylogénétiques illustrés</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Accès par l'arbre phylogénétique détaillé</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les liens de l'arbre phylogénétique (colonne de gauche) mènent aux articles correspondant de wikipédia. Ceux de la colonne de droite mènent aux pages Wikimedia Commons. Dans l'arbre phylogénétique, les groupes éteints n'ont pas été représentés. La classification phylogénétique étant en perpétuelle évolution, certains termes peuvent varier entre wikimedia commons et wikipédia. Une mise à jour permanente est nécessaire...
 Le signe (►) renvoie à la classification phylogénétique du groupe considéré.
        ─o LUCA ?
         │
